--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1182.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1182.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.126420297723236</v>
+        <v>1.169576644897461</v>
       </c>
       <c r="B1">
-        <v>1.754484037095266</v>
+        <v>2.439228534698486</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.87059727562773</v>
+        <v>2.366158962249756</v>
       </c>
       <c r="E1">
-        <v>1.100846370245236</v>
+        <v>1.233809113502502</v>
       </c>
     </row>
   </sheetData>
